--- a/results/GO_BP_collapsed.xlsx
+++ b/results/GO_BP_collapsed.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -26,6 +26,15 @@
     <t xml:space="preserve">BgRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">RichFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FoldEnrichment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zScore</t>
+  </si>
+  <si>
     <t xml:space="preserve">pvalue</t>
   </si>
   <si>
@@ -47,28 +56,13 @@
     <t xml:space="preserve">coagulation</t>
   </si>
   <si>
-    <t xml:space="preserve">73/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROS1/F13B/MYL12A/ITGA2/PLA2G4A/HPSE/VWF/PRKCA/TREML1/GP5/GNAS/PLSCR1/F5/SERPIND1/TUBB1/SEMG1/CSRP1/CD59/ANXA5/PTPN6/KLKB1/MAPK14/MYL9/PLEK/PRKG1/F2/APOH/CPB2/ANXA2/FBLN1/SYK/DMTN/FCER1G/RAB27A/FGL1/STXBP3/CLIC1/SERPINE2/PLG/WAS/SERPING1/LMAN1/F13A1/APOE/ACTB/GP9/MYH9/F11R/VCL/ITGB3/SLC4A1/CD9/SERPINC1/GNA13/HBB/FLNA/ANO6/ALOX12/PRDX2/P2RX1/SERPINA1/VTN/TLN1/UBASH3B/LYN/FERMT3/PRKCD/ACTG1/KNG1/ILK/GNAQ/SRC/SAA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generation of precursor metabolites and energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP1CA/PDIA5/PPP1CC/ACADM/AKR7A2/NDUFV1/SUCLG1/UQCRC2/SDHA/HK3/NDUFA8/HMGCL/GPI/PFKL/ACOX1/COX7A2/PGM2/DLAT/ACADVL/UQCRH/PHB2/IDH3A/ETFB/ACAT1/GSR/ACSS1/BID/NDUFS6/SUCLA2/ADPGK/DLST/UQCRC1/RHOA/CYBA/COX6B1/GIT1/NDUFS1/ME1/UQCRB/NDUFV2/LDHA/ACO1/UQCRFS1/DERA/COX4I1/PYGL/PKM/PGM1/TPI1/PGLS/COX5A/PFKM/ALDOA/PFKP/ALDH4A1/COX5B/OXCT1/MDH2/NDUFA5/ACLY/QDPR/PPIF/VCP/FH/PRKAG1/GNPDA1/MAOB/TALDO1/SDHB/ETFA/PKLR/ADH5/CS/NNT/IDE/GAPDH/SLC4A1/NDUFA4/NDUFB6/STOML2/ACO2/SOD2/PDHA1/PDHB/COX7B/CAT/PARK7/OGDH/MDH1/DLD/COX7C/SNCA/IDH2/INPP5K/STAT3/CYB5A/BPGM/ADSL/NDUFA10/UQCR10/PGK1/NDUFA9/ME2/GPD2/RPIA/SHMT2/PYGB/CYC1/EIF6</t>
+    <t xml:space="preserve">74/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROS1/F13B/MYL12A/ITGA2/PLA2G4A/HPSE/VWF/PRKCA/TREML1/GP5/GNAS/PLSCR1/F5/SERPIND1/TUBB1/SEMG1/CSRP1/CD59/ANXA5/PTPN6/KLKB1/MAPK14/MYL9/PLEK/PRKG1/F2/APOH/CPB2/ANXA2/FBLN1/SYK/DMTN/FCER1G/RAB27A/FGL1/PDIA3/STXBP3/CLIC1/SERPINE2/PLG/WAS/SERPING1/LMAN1/F13A1/APOE/ACTB/GP9/MYH9/F11R/VCL/ITGB3/SLC4A1/CD9/SERPINC1/GNA13/HBB/FLNA/ANO6/ALOX12/PRDX2/P2RX1/SERPINA1/VTN/TLN1/UBASH3B/LYN/FERMT3/PRKCD/ACTG1/KNG1/ILK/GNAQ/SRC/SAA1</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1990748</t>
@@ -77,13 +71,28 @@
     <t xml:space="preserve">cellular detoxification</t>
   </si>
   <si>
-    <t xml:space="preserve">43/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTT1/HBZ/PRDX5/EPX/GSTP1/MPO/FBLN5/ABCB6/TXNRD1/PRDX4/GPX1/GSR/HBG2/GSTM2/HBG1/GSTO1/GPX3/HBQ1/GSTM3/TXNRD2/TXNDC17/APOE/HBD/ADH5/ESD/PRDX3/AKR1A1/SOD2/CCS/TXN/ALDH1A1/CAT/PARK7/HBB/PTGS1/PRDX1/HBE1/HP/PRDX2/HBA1/PRDX6/RDH11/SOD1</t>
+    <t xml:space="preserve">47/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTT1/HBZ/PRDX5/EPX/GSTP1/APOA4/MPO/FBLN5/ABCB6/TXNRD1/PRDX4/GPX1/GSR/HBG2/GSTM2/HBG1/GSTO1/GPX3/HBQ1/GSTM3/TXNRD2/TXNDC17/APOE/HBD/ADH5/NNT/CP/ESD/PRDX3/AKR1A1/SOD2/CCS/LANCL1/TXN/ALDH1A1/CAT/PARK7/HBB/PTGS1/PRDX1/HBE1/HP/PRDX2/HBA1/PRDX6/RDH11/SOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0019693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribose phosphate metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOT9/CTPS2/PPCDC/ATP6V1A/PPP2CA/NDUFV1/SUCLG1/TGFB1/CTPS1/PPCS/SDHA/BPNT1/HK3/NDUFA8/GPI/PFKL/NUDT5/DLAT/CDA/PRPSAP2/ACAT1/ACOT7/ACSS1/NDUFS6/ACSL4/SUCLA2/ADPGK/PMVK/DLST/FIS1/GIT1/NDUFS1/NDUFV2/AK2/LDHA/ADCY6/GMPR2/SULT1A1/IMPDH2/TJP2/PYGL/PKM/CMPK1/HSD17B4/PGM1/TPI1/PFKM/MTHFD1/ALDOA/PFKP/ADK/APRT/SLC25A1/PNP/DNM1L/NDUFA5/ACLY/AMPD2/VCP/PRKAG1/TALDO1/SDHB/TSPO/PKLR/ABHD14B/PAICS/GAPDH/SLC4A1/ACSL5/NDUFB6/OLA1/STOML2/PDHA1/PDHB/MPP1/RAN/OGDH/PFAS/ATIC/DLD/OPA1/PRPS1/SNCA/HINT1/STAT3/BPGM/HSPA1B/ADSL/NDUFA10/PGK1/NDUFA9/NME1/PDE5A/HPRT1/NME2/RPIA/EIF6/AK1</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0007015</t>
@@ -92,13 +101,13 @@
     <t xml:space="preserve">actin filament organization</t>
   </si>
   <si>
-    <t xml:space="preserve">88/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCP1/ITGB5/EZR/PTK2B/ARF6/PYCARD/HSP90B1/CORO1A/NCK2/ALOX15/CYFIP2/TMOD3/CAPZA2/FLII/CORO1C/RGCC/GRB2/MYO1C/MYADM/PIK3R1/VASP/COTL1/RHOG/MYO1F/DIAPH1/RHOA/SPTBN1/MTPN/CORO7/AIF1/PLEK/DSTN/TPM1/BRK1/CAPZA1/CUL3/CORO1B/CDC42/ACTR3/APOA1/PFN1/TPM4/DMTN/ALDOA/CALD1/TMOD1/ACTC1/ARPC1B/WAS/WDR1/ARPC2/CD47/INF2/IQGAP2/ROCK1/TF/ESAM/NCKAP1/SPTA1/RNH1/PPP1R9B/F11R/ADD1/TPM3/SPTB/ACTN1/ACTR2/CAPG/MCU/CAPZB/FSCN1/S100A10/INPP5K/FLNA/FHOD1/ADD2/ARPC3/NCKAP1L/ARF1/RHOF/PRKCD/ACTG1/ROCK2/SRC/CLASP1/ARHGAP18/PSTPIP2/CYFIP1</t>
+    <t xml:space="preserve">91/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP1/ITGB5/EZR/PTK2B/ARF6/PYCARD/HSP90B1/CORO1A/NCK2/ALOX15/CYFIP2/TMOD3/CAPZA2/FLII/CORO1C/RGCC/GRB2/MYO1C/MYADM/PIK3R1/VASP/COTL1/RHOG/MYO1F/IQGAP1/DIAPH1/RHOA/SPTBN1/MTPN/CORO7/AIF1/PLEK/DSTN/TPM1/BRK1/CAPZA1/CUL3/CORO1B/CDC42/ACTR3/APOA1/PFN1/TPM4/DMTN/ALDOA/CALD1/TMOD1/CNN2/ACTC1/ARPC1B/WAS/WDR1/ARPC2/CD47/INF2/CAP1/IQGAP2/TAGLN2/ROCK1/TF/ESAM/NCKAP1/SPTA1/RNH1/PPP1R9B/F11R/ADD1/TPM3/SPTB/ACTN1/ACTR2/CAPG/CAPZB/FSCN1/S100A10/INPP5K/FLNA/FHOD1/ADD2/ARPC3/NCKAP1L/ARF1/RHOF/PRKCD/ACTG1/ROCK2/SRC/CLASP1/ARHGAP18/PSTPIP2/CYFIP1</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0048193</t>
@@ -107,10 +116,10 @@
     <t xml:space="preserve">Golgi vesicle transport</t>
   </si>
   <si>
-    <t xml:space="preserve">62/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292/16774</t>
+    <t xml:space="preserve">62/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">293/17185</t>
   </si>
   <si>
     <t xml:space="preserve">MACF1/NAPG/YIF1B/RAB6B/RER1/TMED3/SEC24C/TMED4/TMED7/COPA/EPS15/SCFD1/SNX3/PITPNB/PDCD6/SEC31A/NSF/RAB1A/LAMP1/SPTBN1/CORO7/SAR1A/VPS13C/MYO18A/CUL3/RAB14/RP2/VAMP7/AP3D1/COPG1/AP1G1/RAB31/ARCN1/ARF4/COPB2/NRBP1/SEC13/SNAP23/BCAP31/VCP/LMAN1/LYPLA1/COPZ1/YKT6/TMED2/CNST/NAPA/BCAP29/TAPBP/SEC23A/RAB13/RAB1B/COPB1/RAB8A/TMED10/ARF5/RAB6A/ATP2C1/RAB10/ANK1/EHD3/TFG</t>
@@ -122,13 +131,13 @@
     <t xml:space="preserve">protein folding</t>
   </si>
   <si>
-    <t xml:space="preserve">50/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDF2L1/PDIA5/HSP90B1/PFDN1/ERP29/ERP44/FKBP4/PDCD5/CCT4/AHSA1/DNAJA4/APCS/DNAJB11/PDIA6/PRDX4/DNAJA1/FKBP2/TCP1/PDIA4/DNAJB6/TOR1A/ANP32E/CANX/AHSP/B2M/MOGS/CCT7/PFDN2/RP2/TBCA/CCT3/DNAJB2/PDIA3/PPIF/HSP90AB1/LMAN1/CCT8/HSPA9/FKBP1A/HSPA4/NUDCD2/ST13/HSPD1/CCT5/HSPA1B/CCT2/UNC45A/HSP90AA1/HSPA6/CLU</t>
+    <t xml:space="preserve">51/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDF2L1/PDIA5/HSP90B1/PFDN1/ERP29/ERP44/FKBP4/PDCD5/CCT4/AHSA1/DNAJA4/APCS/DNAJB11/PDIA6/PRDX4/DNAJA1/FKBP2/TCP1/PDIA4/DNAJB6/TOR1A/ANP32E/CANX/AHSP/B2M/MOGS/CCT7/PFDN2/RP2/TBCA/CCT3/DNAJB2/PDIA3/PPIF/HSP90AB1/LMAN1/CCT8/HSPA9/FKBP1A/HSPA4/TAPBP/NUDCD2/ST13/HSPD1/CCT5/HSPA1B/CCT2/UNC45A/HSP90AA1/HSPA6/CLU</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0006958</t>
@@ -137,43 +146,73 @@
     <t xml:space="preserve">complement activation, classical pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">19/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33/16774</t>
+    <t xml:space="preserve">19/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34/17185</t>
   </si>
   <si>
     <t xml:space="preserve">C4B/C4A/C4BPA/C1QBP/CFI/C1QC/SERPING1/C1R/C1QB/C8A/C8G/C1QA/C6/C7/C3/C8B/C5/CLU/C9</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0042176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of protein catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR/USP7/SGTA/CSNK1A1/SNX3/PSMC2/GPX1/PSMD1/MSN/NSF/C4BPA/TIMP2/CST3/RPL11/USP9X/PSMC6/RAD23B/XPO1/ANXA2/PSMC3/DNAJB2/RBX1/UBE2K/RAD23A/PSMD3/DDB1/SERPINE2/BCAP31/VCP/PSMF1/PSMD2/PSME1/HSP90AB1/PSMD10/CTSA/APOE/ROCK1/PSME2/PSMC4/RAB7A/EEF1A1/PSMC1/IDE/PITHD1/USP5/PARK7/CDK2/SNCA/FLNA/HSPA1B/GCLC/ALAD/USP14/SUMO2/PSMC5/HSP90AA1/CLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular metabolic compound salvage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGM2/PDXK/CDA/ENOPH1/NAPRT/MRI1/ADK/APRT/PNP/AMPD2/ADSL/HPRT1/MTAP</t>
+    <t xml:space="preserve">GO:0032386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of intracellular transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP1/EZR/USP7/PPP1CC/PDCD10/PDCD5/RAB11B/TGFB1/SCFD1/SNX3/TMEM30A/PIK3R1/MSN/LAMP1/YWHAE/RAB21/TARDBP/MAPK14/CAMK1/IPO5/UFM1/SAR1A/SCP2/JUP/XPO1/CDC42/PTPN11/ANXA2/EMD/MAVS/APOD/SFN/BCAP31/REEP5/TRIM58/PPM1A/EHD1/ARHGAP1/TXN/RAN/PARK7/YOD1/TM9SF4/FLNA/PTPN1/HSP90AA1/PRKCD/SRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic acid catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAH/ACADM/SLC16A3/ECHS1/HMGCL/DCXR/ACOX1/MPST/ACADVL/SORD/ETFB/CPT2/ACAT1/IVD/BLMH/ACOT7/NAGK/DLST/ARG1/ACADSB/SCP2/TST/HSD17B4/ALDH4A1/PON1/HADHB/ECH1/QDPR/HADH/HSD17B10/GNPDA1/DECR1/GLUD1/ETFA/CRAT/HEXB/GOT2/AKR1A1/HADHA/GOT1/DLD/RENBP/CPT1A/ACAT2/GLUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proteasome-mediated ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">388/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USP7/CSNK1A1/PSMB9/CUL1/PLAA/PSMC2/PSMD1/HECTD3/PSMD11/RPL11/USP9X/PSMC6/PSMA2/RAD23B/CUL3/SKP1/PSMD8/XPO1/PSMC3/CUL2/SH3BGRL/DNAJB2/RBX1/PSMB5/UBE2K/PSMB2/RAD23A/PSMD3/DDB1/VCP/PSMF1/PSMB7/PSMD4/PSMD2/HSP90AB1/PSMB6/PSMD10/PSMA3/FBXO7/UBE2N/PSMC4/NSFL1C/PSMA5/PSMC1/PCBP2/PSMB4/USP5/PARK7/CDK2/HSPA1B/PSMA6/GCLC/USP14/SUMO2/PSMA7/PSMC5/PSMB1/PSMA1/CLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0045921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of exocytosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX4/ITGB2/CD177/LAMP1/FGR/PDCD6IP/RAB2B/VAMP7/ANXA2/VAMP8/AP1G1/SYK/RAB27A/RAB7A/SNCA/S100A10/RAB27B/UNC13D/SYTL4/CLASP1</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0045116</t>
@@ -182,94 +221,100 @@
     <t xml:space="preserve">protein neddylation</t>
   </si>
   <si>
-    <t xml:space="preserve">11/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/16774</t>
+    <t xml:space="preserve">11/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/17185</t>
   </si>
   <si>
     <t xml:space="preserve">UBA3/RPL11/UBE2M/GPS1/COPS4/RBX1/COPS8/DCUN1D1/COPS2/COPS6/NAE1</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0032092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of protein binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP2CA/TRIM21/RPL11/USP9X/B2M/ANXA2/FKBP1A/APOE/ADD1/FLOT1/IDE/RAN/ADD2/EPB41/VTN</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0071786</t>
   </si>
   <si>
     <t xml:space="preserve">endoplasmic reticulum tubular network organization</t>
   </si>
   <si>
-    <t xml:space="preserve">9/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/16774</t>
+    <t xml:space="preserve">9/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/17185</t>
   </si>
   <si>
     <t xml:space="preserve">RAB18/ARL6IP1/TMEM33/ATL3/RTN3/RTN1/RTN4/ATL1/RAB10</t>
   </si>
   <si>
+    <t xml:space="preserve">GO:0002181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytoplasmic translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNCRIP/RPLP1/EIF3L/RPS3A/RPL15/EIF3K/RPL4/RPL11/RPS25/EIF3E/RPS2/EIF2B1/HNRNPD/PKM/RPL14/EIF3A/SH3BGRL/ETF1/EIF3I/HNRNPU/RPS28/RPLP0/PABPC1/RPS10/EIF3M/RPS18/RPS12/UBA52</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0009438</t>
   </si>
   <si>
     <t xml:space="preserve">methylglyoxal metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">5/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/16774</t>
+    <t xml:space="preserve">5/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/17185</t>
   </si>
   <si>
     <t xml:space="preserve">PNKD/TPI1/PARK7/HAGH/GLO1</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0002181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYNCRIP/RPLP1/EIF3L/RPS3A/RPL15/EIF3K/RPL4/RPL11/RPS25/EIF3E/RPS2/HNRNPD/PKM/RPL14/EIF3A/SH3BGRL/ETF1/EIF3I/HNRNPU/RPS28/RPLP0/PABPC1/RPS10/EIF3M/RPS18/RPS12/UBA52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular iron ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCN2/ATP6V1A/ABCB6/ACO1/SRI/BOLA2/ATP6V0D1/HMOX1/GLRX3/TF/CP/FTH1/HPX/FTL/SOD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0097292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XMP metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPDH2/PAICS/PFAS/ATIC/ADSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1905918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of CoA-transferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBI/AGT/APOA1/APOE/APOA2</t>
+    <t xml:space="preserve">GO:0006122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial electron transport, ubiquinol to cytochrome c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UQCRC2/UQCRH/UQCRC1/UQCRB/UQCRFS1/UQCR10/CYC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological process involved in interaction with symbiont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZU1/APCS/FASN/GPX1/STOM/TARDBP/LTF/ARG1/F2/CDC42/DCD/PSMC3/APOL1/DDB1/EEA1/PLG/APOE/EEF1A1/GAPDH/HSPD1/INPP5K/ROCK2</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0060099</t>
@@ -278,43 +323,97 @@
     <t xml:space="preserve">regulation of phagocytosis, engulfment</t>
   </si>
   <si>
-    <t xml:space="preserve">7/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/16774</t>
+    <t xml:space="preserve">15/17185</t>
   </si>
   <si>
     <t xml:space="preserve">ITGA2/ALOX15/RAB31/APPL2/ANO6/NCKAP1L/C3</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0010968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of microtubule nucleation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGEF7/DCTN1/GIT1/EML2/CKAP5/HSPA1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein export from nucleus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGFB1/YWHAE/CAMK1/XPO1/PTPN11/EMD/SFN/HSPA9/PPM1A/XPO7/TXN/RAN/PARK7/NUTF2</t>
+    <t xml:space="preserve">GO:0006778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porphyrin-containing compound metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCB6/SUCLA2/AMBP/UROD/PGRMC1/HMBS/BLVRA/HMOX1/TSPO/SPTA1/HPX/ALAD/BLVRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0072350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tricarboxylic acid metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDH3A/ACO1/ACLY/GLUD1/CS/ACO2/IDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear envelope organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAFAH1B1/PRKCA/TOR1AIP1/DCTN1/TOR1A/TARDBP/UBE2I/EMD/BROX/NSFL1C/ZMPSTE24/PRKCB/LMNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial electron transport, cytochrome c to oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX7A2/COX6B1/COX4I1/COX5A/COX5B/NDUFA4/COX7B/COX7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0031115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of microtubule polymerization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKBP4/MAPRE1/ARHGEF7/STMN2/EML2/SNCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malate metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME1/MDH2/FH/MDH1/ME2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0051560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA6/FIS1/PDZD8/BCAP31/MCU/IMMT/RAP1GDS1/TGM2</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0060397</t>
@@ -323,67 +422,139 @@
     <t xml:space="preserve">growth hormone receptor signaling pathway via JAK-STAT</t>
   </si>
   <si>
-    <t xml:space="preserve">8/16774</t>
+    <t xml:space="preserve">10/17185</t>
   </si>
   <si>
     <t xml:space="preserve">STAT5B/STAT6/STAT3/PTPN1/LYN</t>
   </si>
   <si>
-    <t xml:space="preserve">GO:0001909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leukocyte mediated cytotoxicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAT5B/AZU1/CORO1A/HLA-G/ARL8B/HLA-A/TGFB1/SERPINB9/PTPN6/LAMP1/ARG1/B2M/F2/VAMP7/TUBB/AP1G1/RAB27A/PRDX1/HPRT1/UNC13D/NCKAP1L/TUBB4B/STXBP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0099003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vesicle-mediated transport in synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARF6/ATP6V0A1/SNAP29/ATP6V1A/PLAA/STX11/RAP1A/VPS18/TOR1A/AP2M1/CANX/GIT1/AP3D1/STON2/ATP6V0D1/SNAP23/AP2B1/ROCK1/ACTB/ITGB3/NAPA/PRKCB/ATP2A2/SNCA/RAB8A/ARHGDIA/RAP1B/DNM1/RAB27B/P2RX1/ACTG1/CYFIP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0044242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular lipid catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLA2G4A/ACADM/ECHS1/APOC1/ACOX1/ACADVL/ETFB/CPT2/ACAT1/IVD/APOB/SCP2/ASAH1/HSD17B4/APOC2/APOC3/HADHB/ECH1/HADH/HSD17B10/APOA2/DECR1/ETFA/CRAT/HEXB/HADHA/ABHD16A/MGLL/CPT1A/ACAT2/PRDX6/PRKCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0051560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial calcium ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANXA6/FIS1/PDZD8/BCAP31/MCU/IMMT/RAP1GDS1/TGM2</t>
+    <t xml:space="preserve">GO:0009251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucan catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP1CA/MGAM/PGM2/PYGL/PFKM/PYGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of lipid transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOC1/FIS1/PTPN11/APOC2/APOC3/APOA2/TSPO/ITGB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylcholine biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC44A1/RAB38/APOA1/CAPN2/LPCAT3/APOA2/SLC44A2/FABP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:1905476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of protein localization to membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2L1/TGFB1/AP2M1/TMBIM1/DMTN/LYPLA1/TMED2/CLTC/INPP5K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0021762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substantia nigra development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASP1/YWHAE/RHOA/COX6B1/CDC42/MAOB/ACTB/GLUD1/YWHAH/CNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0071470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to osmotic stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYCARD/XRCC6/CASP3/SLC2A1/SERPINB6/STK39/OXSR1/TSPO/XRCC5/USP15/MYLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0018279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein N-linked glycosylation via asparagine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAD1/STT3A/OSTC/RPN2/STT3B/DDOST/RPN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0034113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heterotypic cell-cell adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITGB2/MYADM/JUP/DSP/CD58/APOA1/CD44/CD47/FLOT1/ITGB3/JAM3/ITGB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of T cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZR/PHPT1/PTPRJ/PTPN6/DUSP3/SLA2/LGALS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0090559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of membrane permeability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL2L1/SLC25A5/BID/PDCD6IP/TJP2/PPIF/F11R/JAM3/CNP/SLC25A6/VDAC2/GCLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0050765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of phagocytosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLSCR1/SNX3/PRTN3/CNN2/CD47/ATG3</t>
   </si>
   <si>
     <t xml:space="preserve">GO:2001044</t>
@@ -392,193 +563,55 @@
     <t xml:space="preserve">regulation of integrin-mediated signaling pathway</t>
   </si>
   <si>
-    <t xml:space="preserve">21/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD177/BST1/CD63/DMTN/LAMA2/LIMS1/FLNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0021762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substantia nigra development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASP1/YWHAE/RHOA/COX6B1/CDC42/MAOB/ACTB/GLUD1/YWHAH/CNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1905144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to acetylcholine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNAI2/RGS10/GNB1/ITPR1/CRKL/TSPO/PRKCB/GNAQ/ROCK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrimidine nucleotide biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTPS2/CTPS1/CDA/CMPK1/DTYMK/PRPS1/NME1/NME2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0018279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein N-linked glycosylation via asparagine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAD1/STT3A/OSTC/RPN2/STT3B/DDOST/RPN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysteine metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPST/TST/MTHFD1/GCLM/GCLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porphyrin-containing compound catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBP/UROD/BLVRA/HMOX1/BLVRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of T cell receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EZR/PHPT1/PTPRJ/PTPN6/DUSP3/SLA2/LGALS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0009065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamine family amino acid catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAH/ARG1/ALDH4A1/GLUD1/GOT2/GOT1/GLUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of translational initiation in response to stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP1CA/NCK2/EIF2S1/NPM1/TMED2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0050765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of phagocytosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLSCR1/SNX3/PRTN3/CNN2/CD47/ATG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0071470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to osmotic stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PYCARD/CASP3/SLC2A1/SERPINB6/STK39/OXSR1/TSPO/XRCC5/USP15/MYLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyaluronan metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGFB1/ITIH3/CD44/ITIH2/HEXB/CLTC/ITIH4/ITIH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0046348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amino sugar catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHI3L1/NAGK/GNPDA1/ALDH1A1/RENBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:1900044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAA/OTUB1/UBE2N/UBE2V1/UBE2V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptide catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECE1/ANPEP/LTA4H/XPNPEP1/IDE/NPEPPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0015936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coenzyme A metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/16774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPCDC/PPCS/ACAT1/ACOT7/ACLY</t>
+    <t xml:space="preserve">CD177/BST1/CD63/LAMA2/LIMS1/FLNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0007213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G protein-coupled acetylcholine receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNAI2/RGS10/GNB1/ITPR1/PRKCB/GNAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0032677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of interleukin-8 production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYCARD/CHI3L1/RAB1A/CD58/SYK/MAVS/APOA2/CRP/PRG3/LBP/PARK7/STAT3/HSPA1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0009743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to carbohydrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225/17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX4/PTK2B/ITGA2/RAB11B/TXN2/OSBP/PFKL/MAP2K3/GPX1/CASP3/JAGN1/ME1/SERPINF1/SLC29A1/EIF2B1/SRI/CPB2/APOA2/PKLR/SOD2/PRKCB/GCLM/CAT/GCLC/LYN/NME2/GLUL</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0020027</t>
   </si>
   <si>
     <t xml:space="preserve">hemoglobin metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/17185</t>
   </si>
   <si>
     <t xml:space="preserve">PRMT1/AHSP/EPB42/CAT/HPX</t>
@@ -941,846 +974,1116 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000000000000000000000169821025267315</v>
+        <v>0.321739130434783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000000000000000000000000684771235249446</v>
+        <v>4.47699348706214</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000000000000000000000000526127034300296</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>14.7718253833704</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0000000000000000000000000000185034958536005</v>
       </c>
       <c r="I2" t="n">
-        <v>73</v>
+        <v>0.000000000000000000000000101416639275289</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0000000000000000000000000773773186707905</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0000000000000000000000000578288380215187</v>
+        <v>0.401709401709402</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000000000000000000000937260892233764</v>
+        <v>5.58977819301706</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000000000000000720121214520596</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>13.8614473299083</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.00000000000000000000000737529211230606</v>
       </c>
       <c r="I3" t="n">
-        <v>109</v>
+        <v>0.00000000000000000000944479907901914</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00000000000000000000720604856699209</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00000000000000000000402630422111029</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000000000000000326281628318225</v>
+        <v>2.8648487735175</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000000000000000250690415451235</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+        <v>11.4811960582116</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.000000000000000000000647841596850579</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>0.000000000000000000518516218079282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000000000000000000395609585655728</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000000000000000000430753526100193</v>
+        <v>0.198689956331878</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000000000000000199469650693397</v>
+        <v>2.76476672029419</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000000000000000153257570338806</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+        <v>10.6518804359475</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.000000000000000000248425840869761</v>
       </c>
       <c r="I5" t="n">
-        <v>88</v>
+        <v>0.000000000000000108060626341219</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0000000000000000824464464600632</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0000000000000128561641122603</v>
+        <v>0.21160409556314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00000000000277821706465946</v>
+        <v>2.94446670627738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00000000000213457433611284</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
+        <v>9.34133726420217</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00000000000000740032114135055</v>
       </c>
       <c r="I6" t="n">
+        <v>0.00000000000182247139492568</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00000000000139048139340113</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0000000000000309408101260106</v>
+        <v>0.238317757009346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000000000590902469021433</v>
+        <v>3.31618676453895</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00000000000454005290502191</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
+        <v>9.48728643227475</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0000000000000132669575322477</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>0.0000000000028316109692994</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00000000000216041929498813</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000000000000680611807075832</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0000000000119254225547909</v>
+        <v>7.77601809954751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00000000000916260333167237</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
+        <v>11.0048609517604</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.000000000000107864339642891</v>
       </c>
       <c r="I8" t="n">
+        <v>0.0000000000191848712981509</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0000000000146373801252239</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000000223563289118066</v>
+        <v>0.183908045977011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00000128262017995789</v>
+        <v>2.55907673693518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000000985469477509722</v>
-      </c>
-      <c r="H9" t="s">
+        <v>7.06238686747776</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00000000134554382770397</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0000000979036037362328</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0000000746969964638051</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="n">
         <v>48</v>
-      </c>
-      <c r="I9" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000000583868519626279</v>
+        <v>0.181451612903226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000295720282245091</v>
+        <v>2.52489552043881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00000227209361420358</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
+        <v>6.73074213502488</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00000000677943388983903</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>0.000000405688927071395</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.000000309526342181436</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00000202807454436494</v>
+        <v>0.152061855670103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000620189022222542</v>
+        <v>2.11593764347427</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0000476506888973927</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
+        <v>6.18664500450592</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0000000320939810077573</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>0.0000015335653760647</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00000117005629109978</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00000460753141675884</v>
+        <v>0.25974025974026</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000123944506949575</v>
+        <v>3.61428045638572</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0000952296949731505</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
+        <v>6.39754258095447</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.000000327219389614598</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>0.000011264439525281</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00000859437004641397</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000116197170140607</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000268080517445394</v>
+        <v>5.4665991902834</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000205973032067935</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
+        <v>6.58188954756372</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00000173251888410973</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>0.0000493036373997981</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0000376169363328806</v>
+      </c>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000223990132910633</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000460993025923692</v>
+        <v>3.86527215474584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000354192584438801</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
+        <v>5.86795356846395</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00000387990837163401</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>0.0000974237384453826</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0000743308761723569</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0000357366852559088</v>
+        <v>0.45</v>
       </c>
       <c r="F15" t="n">
-        <v>0.000663842207776667</v>
+        <v>6.26174089068826</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00051004673391935</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
+        <v>6.5514558538536</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00000403623121343747</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>0.000100953079920469</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0000770236392334017</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0000382077615157914</v>
+        <v>0.176100628930818</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000695789095244033</v>
+        <v>2.45043668678227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000534592334395994</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
+        <v>5.11277040721486</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.00000846770572782433</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>0.000188915399913795</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.000144135786843326</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000382077615157914</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000695789095244033</v>
+        <v>11.5958164642375</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000534592334395994</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
+        <v>7.2231457712887</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0000107338139849177</v>
       </c>
       <c r="I17" t="n">
+        <v>0.000229861575068321</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000175376274261584</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0000415746132853056</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000740462137166584</v>
+        <v>7.49268140766116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000568915760746288</v>
-      </c>
-      <c r="H18" t="s">
-        <v>90</v>
+        <v>6.5162928856175</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0000113606592412354</v>
       </c>
       <c r="I18" t="n">
+        <v>0.000237719938305982</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000181371928237267</v>
+      </c>
+      <c r="K18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000050278381018273</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000855524262838487</v>
+        <v>2.61649192013564</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000657320897854587</v>
-      </c>
-      <c r="H19" t="s">
-        <v>95</v>
+        <v>4.88191731013772</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0000268680023851937</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>0.00049293931023609</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000376095307102048</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0000672789322037986</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00110702872456149</v>
+        <v>6.49365721997301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000850558127673992</v>
-      </c>
-      <c r="H20" t="s">
-        <v>100</v>
+        <v>5.92293964144916</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0000374733725734014</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>0.000638143629222046</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.000486881080943886</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000957324686802382</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0014601078412879</v>
+        <v>3.546955624355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00112183773025392</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
+        <v>5.06865056949586</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0000463807307270104</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>0.000753745733109259</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.000575081408773859</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000113280471245399</v>
+        <v>0.4375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00168054300934536</v>
+        <v>6.0878036437247</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00129120363707872</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
+        <v>5.66543289866594</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0000624872923217673</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>0.000973494240234248</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000742741768895689</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000129425176890118</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00187709937758084</v>
+        <v>3.34990253411306</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00144222285892862</v>
-      </c>
-      <c r="H23" t="s">
-        <v>114</v>
+        <v>4.81249885381808</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0000881820182318181</v>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>0.00131062196847794</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.000999958334613892</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000141094240363419</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0019928408720611</v>
+        <v>4.83999295898609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0015311499722502</v>
-      </c>
-      <c r="H24" t="s">
-        <v>118</v>
+        <v>5.1277360801292</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.000128436731953302</v>
       </c>
       <c r="I24" t="n">
-        <v>32</v>
+        <v>0.00177237154029525</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00135225697140489</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000277906573722185</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00341225060121387</v>
+        <v>6.42229834942386</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00262171831509844</v>
-      </c>
-      <c r="H25" t="s">
-        <v>123</v>
+        <v>5.44201724057398</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.000150361357941675</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>0.0020141501566957</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00153672552787341</v>
+      </c>
+      <c r="K25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000508955726322806</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0054901164288698</v>
+        <v>7.73054430949168</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00421819510808218</v>
-      </c>
-      <c r="H26" t="s">
-        <v>127</v>
+        <v>5.61986255070053</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.000187550766856611</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>0.00237799516867897</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0018143264387317</v>
+      </c>
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000862435196264272</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0085231210021056</v>
+        <v>4.28153223294924</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00654852912182692</v>
-      </c>
-      <c r="H27" t="s">
-        <v>132</v>
+        <v>4.65942824990539</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.000337077680530931</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>0.0039529457663728</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.00301595819422412</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000890191756288395</v>
+        <v>0.5</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00871769358915055</v>
+        <v>6.95748987854251</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0066980241544867</v>
-      </c>
-      <c r="H28" t="s">
-        <v>136</v>
+        <v>5.24360787974517</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00035288306341932</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>0.00401883407537278</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.00306622865002508</v>
+      </c>
+      <c r="K28" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00108379912314039</v>
+        <v>0.375</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0102723241452034</v>
+        <v>5.21811740890688</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00789248607371548</v>
-      </c>
-      <c r="H29" t="s">
-        <v>139</v>
+        <v>4.6970093211698</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.000581604486409578</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>0.00614523684237711</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.00468859896026898</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00124824990964174</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0115605773774392</v>
+        <v>3.97570850202429</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00888228356755597</v>
-      </c>
-      <c r="H30" t="s">
+        <v>4.38494341034156</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.000589452190855426</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.00617718883477462</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00471297720348011</v>
+      </c>
+      <c r="K30" t="s">
         <v>143</v>
       </c>
-      <c r="I30" t="n">
-        <v>7</v>
+      <c r="L30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1791,25 +2094,34 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
         <v>146</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00161410621018015</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0141027635587573</v>
+        <v>3.83861510540276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0108355094149134</v>
-      </c>
-      <c r="H31" t="s">
+        <v>4.25708926470696</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.000763239927398385</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.00774488946930564</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0059090774927949</v>
+      </c>
+      <c r="K31" t="s">
         <v>147</v>
       </c>
-      <c r="I31" t="n">
-        <v>5</v>
+      <c r="L31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1820,343 +2132,489 @@
         <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00161410621018015</v>
+        <v>0.25</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0141027635587573</v>
+        <v>3.47874493927126</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0108355094149134</v>
-      </c>
-      <c r="H32" t="s">
-        <v>150</v>
+        <v>4.14265682254419</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.000793369875443389</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>0.00796229986279627</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.00607495395468202</v>
+      </c>
+      <c r="K32" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00162560565138823</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0141460421985905</v>
+        <v>3.1624953993375</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0108687614869221</v>
-      </c>
-      <c r="H33" t="s">
-        <v>153</v>
+        <v>3.99648990304795</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.000923020065312456</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>0.00910646760893013</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.00694791358870345</v>
+      </c>
+      <c r="K33" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00208601900089416</v>
+        <v>0.211538461538462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.017631892024507</v>
+        <v>2.9435534101526</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0135470279451467</v>
-      </c>
-      <c r="H34" t="s">
-        <v>157</v>
+        <v>3.90568048120709</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.000986708301593491</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>0.00955808359319686</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.00729248065561811</v>
+      </c>
+      <c r="K34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0023608938550843</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0194728687818212</v>
+        <v>4.05853576248313</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0149614968826288</v>
-      </c>
-      <c r="H35" t="s">
-        <v>161</v>
+        <v>4.17218113699865</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00113578061474292</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>0.0108543332480581</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.00828147342187256</v>
+      </c>
+      <c r="K35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00238199830346356</v>
+        <v>0.19672131147541</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0195489453120987</v>
+        <v>2.73737306696755</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0150199484021938</v>
-      </c>
-      <c r="H36" t="s">
-        <v>164</v>
+        <v>3.78242791250892</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.00116440081087473</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>0.0110895621194169</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.00846094475389234</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00247978559008994</v>
+        <v>0.28</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0202474181115278</v>
+        <v>3.89619433198381</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0155566026942935</v>
-      </c>
-      <c r="H37" t="s">
-        <v>168</v>
+        <v>4.03231386342035</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0014806659280564</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>0.0134097651164712</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0102311778040791</v>
+      </c>
+      <c r="K37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00314640295192062</v>
+        <v>0.1875</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0246950730475803</v>
+        <v>2.60905870445344</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0189738483095302</v>
-      </c>
-      <c r="H38" t="s">
-        <v>172</v>
+        <v>3.58849693423066</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.00179906460842174</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>0.01548307888135</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0118130430782192</v>
+      </c>
+      <c r="K38" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00333029194592767</v>
+        <v>0.3</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0257948419180993</v>
+        <v>4.17449392712551</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0198188285079919</v>
-      </c>
-      <c r="H39" t="s">
-        <v>175</v>
+        <v>3.952599957686</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.00219474983096869</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>0.0182350318461747</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0139126861254341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00333029194592767</v>
+        <v>0.3</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0257948419180993</v>
+        <v>4.17449392712551</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0198188285079919</v>
-      </c>
-      <c r="H40" t="s">
-        <v>178</v>
+        <v>3.952599957686</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00219474983096869</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>0.0182350318461747</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0139126861254341</v>
+      </c>
+      <c r="K40" t="s">
+        <v>183</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00404301129811647</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0295833433924256</v>
+        <v>3.97570850202429</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0227296298713166</v>
-      </c>
-      <c r="H41" t="s">
-        <v>182</v>
+        <v>3.7966979463124</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00288798754982247</v>
       </c>
       <c r="I41" t="n">
+        <v>0.0228575825482241</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0174395292677459</v>
+      </c>
+      <c r="K41" t="s">
+        <v>187</v>
+      </c>
+      <c r="L41" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00790846000919166</v>
+        <v>0.158536585365854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0493460502787195</v>
+        <v>2.20603337612323</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0379138166896256</v>
-      </c>
-      <c r="H42" t="s">
-        <v>186</v>
+        <v>3.04610852595112</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.00547197604549153</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>0.0382083561824234</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0291516281089666</v>
+      </c>
+      <c r="K42" t="s">
+        <v>191</v>
+      </c>
+      <c r="L42" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00790846000919166</v>
+        <v>0.12</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0493460502787195</v>
+        <v>1.6697975708502</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0379138166896256</v>
-      </c>
-      <c r="H43" t="s">
-        <v>189</v>
+        <v>2.81408473505923</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.00604224750164906</v>
       </c>
       <c r="I43" t="n">
+        <v>0.0409734225984799</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0312612762569429</v>
+      </c>
+      <c r="K43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L43" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.86527215474584</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.38431045303673</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.00739371471289029</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.047153341938881</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0359763367399076</v>
+      </c>
+      <c r="K44" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" t="n">
         <v>5</v>
       </c>
     </row>
